--- a/corporate.xlsx
+++ b/corporate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C3544-E268-4E07-938B-6F7C1E95AA0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F58F38-3577-4686-90C5-FC5F62FECE71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>End of year</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>FRED series WAAA</t>
+  </si>
+  <si>
+    <t>FRED series WBAA</t>
+  </si>
+  <si>
+    <t>WBAA</t>
+  </si>
+  <si>
+    <t>WAAA</t>
   </si>
 </sst>
 </file>
@@ -84,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,11 +116,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -490,7 +515,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -514,12 +539,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -531,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -542,11 +578,12 @@
     <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -554,13 +591,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1972</v>
       </c>
@@ -570,11 +610,14 @@
       <c r="C2" s="5">
         <v>7.11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="E2" s="1">
         <v>5.0126839999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1973</v>
       </c>
@@ -584,11 +627,14 @@
       <c r="C3" s="5">
         <v>7.73</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
+        <v>8.52</v>
+      </c>
+      <c r="E3" s="1">
         <v>9.9676929999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1974</v>
       </c>
@@ -598,11 +644,14 @@
       <c r="C4" s="5">
         <v>8.9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
+        <v>10.61</v>
+      </c>
+      <c r="E4" s="1">
         <v>1.3716265E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1975</v>
       </c>
@@ -612,11 +661,14 @@
       <c r="C5" s="5">
         <v>8.7200000000000006</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
+        <v>10.33</v>
+      </c>
+      <c r="E5" s="1">
         <v>9.7030209999999992E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1976</v>
       </c>
@@ -626,11 +678,14 @@
       <c r="C6" s="5">
         <v>7.91</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="E6" s="1">
         <v>6.9896979999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1977</v>
       </c>
@@ -640,11 +695,14 @@
       <c r="C7" s="5">
         <v>8.2799999999999994</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
+        <v>9.06</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.7213389999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1978</v>
       </c>
@@ -654,11 +712,14 @@
       <c r="C8" s="5">
         <v>9.27</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
+        <v>10.08</v>
+      </c>
+      <c r="E8" s="1">
         <v>7.9206069999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1979</v>
       </c>
@@ -668,11 +729,14 @@
       <c r="C9" s="5">
         <v>10.87</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
+        <v>12.22</v>
+      </c>
+      <c r="E9" s="1">
         <v>6.8351510000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1980</v>
       </c>
@@ -682,11 +746,14 @@
       <c r="C10" s="5">
         <v>12.89</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
+        <v>15.19</v>
+      </c>
+      <c r="E10" s="1">
         <v>1.0373337999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1981</v>
       </c>
@@ -696,11 +763,14 @@
       <c r="C11" s="5">
         <v>14.36</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
+        <v>16.75</v>
+      </c>
+      <c r="E11" s="1">
         <v>8.4787419999999992E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1982</v>
       </c>
@@ -710,11 +780,14 @@
       <c r="C12" s="5">
         <v>11.82</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
+        <v>14.11</v>
+      </c>
+      <c r="E12" s="1">
         <v>1.1454578999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1983</v>
       </c>
@@ -724,11 +797,14 @@
       <c r="C13" s="5">
         <v>12.55</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
+        <v>13.79</v>
+      </c>
+      <c r="E13" s="1">
         <v>8.3863170000000008E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1984</v>
       </c>
@@ -738,11 +814,14 @@
       <c r="C14" s="5">
         <v>12.05</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
+        <v>13.39</v>
+      </c>
+      <c r="E14" s="1">
         <v>8.0041060000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1985</v>
       </c>
@@ -752,11 +831,14 @@
       <c r="C15" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
+        <v>11.36</v>
+      </c>
+      <c r="E15" s="1">
         <v>6.387836E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1986</v>
       </c>
@@ -766,11 +848,14 @@
       <c r="C16" s="5">
         <v>8.4600000000000009</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
+        <v>9.98</v>
+      </c>
+      <c r="E16" s="1">
         <v>9.2917199999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1987</v>
       </c>
@@ -780,11 +865,14 @@
       <c r="C17" s="5">
         <v>10.07</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
+        <v>11.28</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.1250115999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1988</v>
       </c>
@@ -794,11 +882,14 @@
       <c r="C18" s="5">
         <v>9.6</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
+        <v>10.67</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.0815429E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1989</v>
       </c>
@@ -808,11 +899,14 @@
       <c r="C19" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
+        <v>9.84</v>
+      </c>
+      <c r="E19" s="1">
         <v>8.2773800000000008E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1990</v>
       </c>
@@ -822,11 +916,14 @@
       <c r="C20" s="5">
         <v>9.0399999999999991</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
+        <v>10.47</v>
+      </c>
+      <c r="E20" s="1">
         <v>1.0057228E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1991</v>
       </c>
@@ -836,11 +933,14 @@
       <c r="C21" s="5">
         <v>8.2200000000000006</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
+        <v>9.14</v>
+      </c>
+      <c r="E21" s="1">
         <v>8.9910430000000006E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1992</v>
       </c>
@@ -850,11 +950,14 @@
       <c r="C22" s="5">
         <v>7.93</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
+        <v>8.75</v>
+      </c>
+      <c r="E22" s="1">
         <v>6.097173E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1993</v>
       </c>
@@ -864,11 +967,14 @@
       <c r="C23" s="5">
         <v>6.94</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="E23" s="1">
         <v>5.419152E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1994</v>
       </c>
@@ -878,11 +984,14 @@
       <c r="C24" s="5">
         <v>8.43</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
+        <v>9.08</v>
+      </c>
+      <c r="E24" s="1">
         <v>6.2068820000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1995</v>
       </c>
@@ -892,11 +1001,14 @@
       <c r="C25" s="5">
         <v>6.76</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
+        <v>7.42</v>
+      </c>
+      <c r="E25" s="1">
         <v>4.9127040000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1996</v>
       </c>
@@ -906,11 +1018,14 @@
       <c r="C26" s="5">
         <v>7.21</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
+        <v>7.91</v>
+      </c>
+      <c r="E26" s="1">
         <v>7.4320130000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1997</v>
       </c>
@@ -920,11 +1035,14 @@
       <c r="C27" s="5">
         <v>6.69</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
+        <v>7.26</v>
+      </c>
+      <c r="E27" s="1">
         <v>1.1449778000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1998</v>
       </c>
@@ -934,11 +1052,14 @@
       <c r="C28" s="5">
         <v>6.29</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
+        <v>7.29</v>
+      </c>
+      <c r="E28" s="1">
         <v>1.2814732000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1999</v>
       </c>
@@ -948,11 +1069,14 @@
       <c r="C29" s="5">
         <v>7.64</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="E29" s="1">
         <v>1.1370732999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2000</v>
       </c>
@@ -962,11 +1086,14 @@
       <c r="C30" s="5">
         <v>7.15</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
+        <v>7.96</v>
+      </c>
+      <c r="E30" s="1">
         <v>1.400175E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2001</v>
       </c>
@@ -976,11 +1103,14 @@
       <c r="C31" s="5">
         <v>6.66</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="E31" s="1">
         <v>1.3582177000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2002</v>
       </c>
@@ -990,11 +1120,14 @@
       <c r="C32" s="5">
         <v>6.14</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="E32" s="1">
         <v>1.6353705E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2003</v>
       </c>
@@ -1004,11 +1137,14 @@
       <c r="C33" s="5">
         <v>5.55</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
+        <v>6.54</v>
+      </c>
+      <c r="E33" s="1">
         <v>1.0737346E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2004</v>
       </c>
@@ -1018,11 +1154,14 @@
       <c r="C34" s="5">
         <v>5.51</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
+        <v>6.18</v>
+      </c>
+      <c r="E34" s="1">
         <v>6.9883180000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2005</v>
       </c>
@@ -1032,11 +1171,14 @@
       <c r="C35" s="5">
         <v>5.24</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
+        <v>6.19</v>
+      </c>
+      <c r="E35" s="1">
         <v>6.477343E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2006</v>
       </c>
@@ -1046,11 +1188,14 @@
       <c r="C36" s="5">
         <v>5.42</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
+        <v>6.32</v>
+      </c>
+      <c r="E36" s="1">
         <v>6.3097780000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2007</v>
       </c>
@@ -1060,11 +1205,14 @@
       <c r="C37" s="5">
         <v>5.57</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
+        <v>6.72</v>
+      </c>
+      <c r="E37" s="1">
         <v>1.0092566000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2008</v>
       </c>
@@ -1074,11 +1222,14 @@
       <c r="C38" s="5">
         <v>4.72</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
+        <v>8.09</v>
+      </c>
+      <c r="E38" s="1">
         <v>2.5840084999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2009</v>
       </c>
@@ -1088,11 +1239,14 @@
       <c r="C39" s="5">
         <v>5.32</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
+        <v>6.41</v>
+      </c>
+      <c r="E39" s="1">
         <v>1.7175948E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2010</v>
       </c>
@@ -1102,11 +1256,14 @@
       <c r="C40" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
+        <v>6.07</v>
+      </c>
+      <c r="E40" s="1">
         <v>1.1377806000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2011</v>
       </c>
@@ -1116,11 +1273,14 @@
       <c r="C41" s="5">
         <v>3.83</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="E41" s="1">
         <v>1.4711848E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2012</v>
       </c>
@@ -1130,11 +1290,14 @@
       <c r="C42" s="5">
         <v>3.65</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E42" s="1">
         <v>8.0368190000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2013</v>
       </c>
@@ -1144,11 +1307,14 @@
       <c r="C43" s="5">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="E43" s="1">
         <v>6.973997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2014</v>
       </c>
@@ -1158,11 +1324,14 @@
       <c r="C44" s="5">
         <v>3.79</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="E44" s="1">
         <v>7.1702459999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2015</v>
       </c>
@@ -1172,11 +1341,14 @@
       <c r="C45" s="5">
         <v>3.96</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
+        <v>5.49</v>
+      </c>
+      <c r="E45" s="1">
         <v>9.7698769999999997E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>2016</v>
       </c>
@@ -1186,11 +1358,14 @@
       <c r="C46" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E46" s="1">
         <v>8.2598510000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2017</v>
       </c>
@@ -1200,11 +1375,14 @@
       <c r="C47" s="5">
         <v>3.48</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E47" s="1">
         <v>4.212632E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2018</v>
       </c>
@@ -1214,11 +1392,14 @@
       <c r="C48" s="5">
         <v>4</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
+        <v>5.13</v>
+      </c>
+      <c r="E48" s="1">
         <v>1.0771202000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2019</v>
       </c>
@@ -1228,11 +1409,14 @@
       <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="E49" s="1">
         <v>7.8676609999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2020</v>
       </c>
@@ -1242,11 +1426,14 @@
       <c r="C50" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="E50" s="1">
         <v>2.1850807999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2021</v>
       </c>
@@ -1256,11 +1443,14 @@
       <c r="C51" s="5">
         <v>2.71</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="E51" s="1">
         <v>8.256513E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2022</v>
       </c>
@@ -1270,11 +1460,14 @@
       <c r="C52" s="5">
         <v>4.7</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="5">
+        <v>5.87</v>
+      </c>
+      <c r="E52" s="1">
         <v>1.5239018E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2023</v>
       </c>
@@ -1284,11 +1477,14 @@
       <c r="C53" s="5">
         <v>4.63</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="E53" s="1">
         <v>8.241211E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2024</v>
       </c>
@@ -1298,7 +1494,10 @@
       <c r="C54" s="5">
         <v>5.39</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
